--- a/prodat-verband-full-change.xlsx
+++ b/prodat-verband-full-change.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiehensgen/Webscraping-LS-Methode/Protets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D245906-C449-0145-8A95-0A9C756FEC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB38F465-0FE7-EA40-B11B-DDB66B05B671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,8 +1201,8 @@
   <dimension ref="A1:T370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="5">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>41</v>
